--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>['5', '43', '45+1', '73', '80']</t>
+  </si>
+  <si>
+    <t>['41', '90+5']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -753,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2334,7 +2337,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2525,7 +2528,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2615,7 +2618,7 @@
         <v>0.5</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2716,7 +2719,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -2803,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>1.5</v>
@@ -2907,7 +2910,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3098,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3289,7 +3292,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4244,7 +4247,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4435,7 +4438,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4817,7 +4820,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5098,7 +5101,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>1.63</v>
@@ -5390,7 +5393,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5581,7 +5584,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5772,7 +5775,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5963,7 +5966,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6154,7 +6157,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6241,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>3</v>
@@ -6345,7 +6348,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6918,7 +6921,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7109,7 +7112,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7491,7 +7494,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7633,6 +7636,197 @@
       </c>
       <c r="BK36">
         <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5280716</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44995.83333333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>7</v>
+      </c>
+      <c r="T37">
+        <v>3.5</v>
+      </c>
+      <c r="U37">
+        <v>1.83</v>
+      </c>
+      <c r="V37">
+        <v>3.4</v>
+      </c>
+      <c r="W37">
+        <v>1.56</v>
+      </c>
+      <c r="X37">
+        <v>2.33</v>
+      </c>
+      <c r="Y37">
+        <v>3.46</v>
+      </c>
+      <c r="Z37">
+        <v>1.28</v>
+      </c>
+      <c r="AA37">
+        <v>9.4</v>
+      </c>
+      <c r="AB37">
+        <v>1.04</v>
+      </c>
+      <c r="AC37">
+        <v>2.54</v>
+      </c>
+      <c r="AD37">
+        <v>2.63</v>
+      </c>
+      <c r="AE37">
+        <v>2.69</v>
+      </c>
+      <c r="AF37">
+        <v>1.07</v>
+      </c>
+      <c r="AG37">
+        <v>6.25</v>
+      </c>
+      <c r="AH37">
+        <v>1.61</v>
+      </c>
+      <c r="AI37">
+        <v>2.2</v>
+      </c>
+      <c r="AJ37">
+        <v>2.48</v>
+      </c>
+      <c r="AK37">
+        <v>1.45</v>
+      </c>
+      <c r="AL37">
+        <v>1.95</v>
+      </c>
+      <c r="AM37">
+        <v>1.81</v>
+      </c>
+      <c r="AN37">
+        <v>1.44</v>
+      </c>
+      <c r="AO37">
+        <v>1.38</v>
+      </c>
+      <c r="AP37">
+        <v>1.39</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>0.67</v>
+      </c>
+      <c r="AU37">
+        <v>1.5</v>
+      </c>
+      <c r="AV37">
+        <v>1.47</v>
+      </c>
+      <c r="AW37">
+        <v>2.97</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>7</v>
+      </c>
+      <c r="BG37">
+        <v>4</v>
+      </c>
+      <c r="BH37">
+        <v>9</v>
+      </c>
+      <c r="BI37">
+        <v>2</v>
+      </c>
+      <c r="BJ37">
+        <v>16</v>
+      </c>
+      <c r="BK37">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,15 @@
     <t>['41', '90+5']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['11', '45+3']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -395,6 +404,15 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['26', '49']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['62', '73']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0.33</v>
@@ -1472,7 +1490,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1663,7 +1681,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1764,7 +1782,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1851,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>0.33</v>
@@ -2236,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2337,7 +2355,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2427,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2528,7 +2546,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2615,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT10">
         <v>0.67</v>
@@ -2719,7 +2737,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -2910,7 +2928,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3000,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3101,7 +3119,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3292,7 +3310,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3382,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0.91</v>
@@ -4146,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>2.24</v>
@@ -4247,7 +4265,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4337,7 +4355,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>1.25</v>
@@ -4438,7 +4456,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4820,7 +4838,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -4907,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
         <v>2</v>
@@ -5393,7 +5411,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5480,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -5584,7 +5602,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5674,7 +5692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1.6</v>
@@ -5775,7 +5793,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5862,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT27">
         <v>3</v>
@@ -5966,7 +5984,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6056,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6157,7 +6175,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6348,7 +6366,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6921,7 +6939,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7112,7 +7130,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7393,7 +7411,7 @@
         <v>3</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.3</v>
@@ -7494,7 +7512,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7827,6 +7845,770 @@
       </c>
       <c r="BK37">
         <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5280719</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>2.3</v>
+      </c>
+      <c r="U38">
+        <v>2.25</v>
+      </c>
+      <c r="V38">
+        <v>4.33</v>
+      </c>
+      <c r="W38">
+        <v>1.33</v>
+      </c>
+      <c r="X38">
+        <v>3.14</v>
+      </c>
+      <c r="Y38">
+        <v>2.51</v>
+      </c>
+      <c r="Z38">
+        <v>1.49</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>1.11</v>
+      </c>
+      <c r="AC38">
+        <v>1.75</v>
+      </c>
+      <c r="AD38">
+        <v>3.27</v>
+      </c>
+      <c r="AE38">
+        <v>3.8</v>
+      </c>
+      <c r="AF38">
+        <v>1.03</v>
+      </c>
+      <c r="AG38">
+        <v>14.5</v>
+      </c>
+      <c r="AH38">
+        <v>1.21</v>
+      </c>
+      <c r="AI38">
+        <v>3.98</v>
+      </c>
+      <c r="AJ38">
+        <v>1.62</v>
+      </c>
+      <c r="AK38">
+        <v>2.17</v>
+      </c>
+      <c r="AL38">
+        <v>1.65</v>
+      </c>
+      <c r="AM38">
+        <v>2.15</v>
+      </c>
+      <c r="AN38">
+        <v>1.17</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>1.83</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0.5</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>1</v>
+      </c>
+      <c r="AU38">
+        <v>1.4</v>
+      </c>
+      <c r="AV38">
+        <v>1.4</v>
+      </c>
+      <c r="AW38">
+        <v>2.8</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>1.85</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>7</v>
+      </c>
+      <c r="BG38">
+        <v>5</v>
+      </c>
+      <c r="BH38">
+        <v>6</v>
+      </c>
+      <c r="BI38">
+        <v>4</v>
+      </c>
+      <c r="BJ38">
+        <v>13</v>
+      </c>
+      <c r="BK38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5280718</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44996.76041666666</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>2.4</v>
+      </c>
+      <c r="U39">
+        <v>2.1</v>
+      </c>
+      <c r="V39">
+        <v>4.33</v>
+      </c>
+      <c r="W39">
+        <v>1.36</v>
+      </c>
+      <c r="X39">
+        <v>2.99</v>
+      </c>
+      <c r="Y39">
+        <v>2.66</v>
+      </c>
+      <c r="Z39">
+        <v>1.44</v>
+      </c>
+      <c r="AA39">
+        <v>6.5</v>
+      </c>
+      <c r="AB39">
+        <v>1.09</v>
+      </c>
+      <c r="AC39">
+        <v>1.79</v>
+      </c>
+      <c r="AD39">
+        <v>3.17</v>
+      </c>
+      <c r="AE39">
+        <v>3.78</v>
+      </c>
+      <c r="AF39">
+        <v>1.04</v>
+      </c>
+      <c r="AG39">
+        <v>12.25</v>
+      </c>
+      <c r="AH39">
+        <v>1.25</v>
+      </c>
+      <c r="AI39">
+        <v>3.57</v>
+      </c>
+      <c r="AJ39">
+        <v>1.76</v>
+      </c>
+      <c r="AK39">
+        <v>1.84</v>
+      </c>
+      <c r="AL39">
+        <v>1.71</v>
+      </c>
+      <c r="AM39">
+        <v>2.08</v>
+      </c>
+      <c r="AN39">
+        <v>1.17</v>
+      </c>
+      <c r="AO39">
+        <v>1.25</v>
+      </c>
+      <c r="AP39">
+        <v>1.8</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>0.33</v>
+      </c>
+      <c r="AS39">
+        <v>1.33</v>
+      </c>
+      <c r="AT39">
+        <v>0.5</v>
+      </c>
+      <c r="AU39">
+        <v>1.99</v>
+      </c>
+      <c r="AV39">
+        <v>1.01</v>
+      </c>
+      <c r="AW39">
+        <v>3</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>1.85</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>5</v>
+      </c>
+      <c r="BG39">
+        <v>6</v>
+      </c>
+      <c r="BH39">
+        <v>6</v>
+      </c>
+      <c r="BI39">
+        <v>6</v>
+      </c>
+      <c r="BJ39">
+        <v>11</v>
+      </c>
+      <c r="BK39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5280714</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44996.85416666666</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>14</v>
+      </c>
+      <c r="S40">
+        <v>17</v>
+      </c>
+      <c r="T40">
+        <v>3.4</v>
+      </c>
+      <c r="U40">
+        <v>2.05</v>
+      </c>
+      <c r="V40">
+        <v>3.2</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>2.66</v>
+      </c>
+      <c r="Y40">
+        <v>3.04</v>
+      </c>
+      <c r="Z40">
+        <v>1.35</v>
+      </c>
+      <c r="AA40">
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <v>1.06</v>
+      </c>
+      <c r="AC40">
+        <v>2.51</v>
+      </c>
+      <c r="AD40">
+        <v>3.13</v>
+      </c>
+      <c r="AE40">
+        <v>2.37</v>
+      </c>
+      <c r="AF40">
+        <v>1.06</v>
+      </c>
+      <c r="AG40">
+        <v>10</v>
+      </c>
+      <c r="AH40">
+        <v>1.5</v>
+      </c>
+      <c r="AI40">
+        <v>2.45</v>
+      </c>
+      <c r="AJ40">
+        <v>2.07</v>
+      </c>
+      <c r="AK40">
+        <v>1.75</v>
+      </c>
+      <c r="AL40">
+        <v>1.8</v>
+      </c>
+      <c r="AM40">
+        <v>1.96</v>
+      </c>
+      <c r="AN40">
+        <v>1.45</v>
+      </c>
+      <c r="AO40">
+        <v>1.25</v>
+      </c>
+      <c r="AP40">
+        <v>1.4</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.5</v>
+      </c>
+      <c r="AS40">
+        <v>1.33</v>
+      </c>
+      <c r="AT40">
+        <v>1</v>
+      </c>
+      <c r="AU40">
+        <v>1.42</v>
+      </c>
+      <c r="AV40">
+        <v>1.85</v>
+      </c>
+      <c r="AW40">
+        <v>3.27</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>1.83</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>5</v>
+      </c>
+      <c r="BG40">
+        <v>5</v>
+      </c>
+      <c r="BH40">
+        <v>5</v>
+      </c>
+      <c r="BI40">
+        <v>4</v>
+      </c>
+      <c r="BJ40">
+        <v>10</v>
+      </c>
+      <c r="BK40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5280717</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44997.66666666666</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>12</v>
+      </c>
+      <c r="T41">
+        <v>4.33</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.47</v>
+      </c>
+      <c r="X41">
+        <v>2.57</v>
+      </c>
+      <c r="Y41">
+        <v>3.2</v>
+      </c>
+      <c r="Z41">
+        <v>1.32</v>
+      </c>
+      <c r="AA41">
+        <v>8.4</v>
+      </c>
+      <c r="AB41">
+        <v>1.05</v>
+      </c>
+      <c r="AC41">
+        <v>4.4</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <v>1.75</v>
+      </c>
+      <c r="AF41">
+        <v>1.04</v>
+      </c>
+      <c r="AG41">
+        <v>7.6</v>
+      </c>
+      <c r="AH41">
+        <v>1.36</v>
+      </c>
+      <c r="AI41">
+        <v>2.79</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.61</v>
+      </c>
+      <c r="AL41">
+        <v>1.91</v>
+      </c>
+      <c r="AM41">
+        <v>1.85</v>
+      </c>
+      <c r="AN41">
+        <v>1.67</v>
+      </c>
+      <c r="AO41">
+        <v>1.29</v>
+      </c>
+      <c r="AP41">
+        <v>1.22</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>0.5</v>
+      </c>
+      <c r="AS41">
+        <v>0.33</v>
+      </c>
+      <c r="AT41">
+        <v>1.33</v>
+      </c>
+      <c r="AU41">
+        <v>1.04</v>
+      </c>
+      <c r="AV41">
+        <v>1.14</v>
+      </c>
+      <c r="AW41">
+        <v>2.18</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>1.93</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>4</v>
+      </c>
+      <c r="BG41">
+        <v>5</v>
+      </c>
+      <c r="BH41">
+        <v>4</v>
+      </c>
+      <c r="BI41">
+        <v>7</v>
+      </c>
+      <c r="BJ41">
+        <v>8</v>
+      </c>
+      <c r="BK41">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['11', '45+3']</t>
   </si>
   <si>
+    <t>['75', '83']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -413,6 +416,12 @@
   </si>
   <si>
     <t>['62', '73']</t>
+  </si>
+  <si>
+    <t>['30', '77']</t>
+  </si>
+  <si>
+    <t>['60', '82']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1782,7 +1791,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2355,7 +2364,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2442,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2546,7 +2555,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2737,7 +2746,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -2827,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2928,7 +2937,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3119,7 +3128,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3310,7 +3319,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3588,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -4265,7 +4274,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4456,7 +4465,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4838,7 +4847,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5116,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
         <v>0.67</v>
@@ -5310,7 +5319,7 @@
         <v>3</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5411,7 +5420,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5602,7 +5611,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5689,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -5793,7 +5802,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5984,7 +5993,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6175,7 +6184,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6366,7 +6375,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6939,7 +6948,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7130,7 +7139,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7512,7 +7521,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7894,7 +7903,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8085,7 +8094,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8467,7 +8476,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8609,6 +8618,388 @@
       </c>
       <c r="BK41">
         <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5280715</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44997.76041666666</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>2.75</v>
+      </c>
+      <c r="U42">
+        <v>2.05</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+      <c r="W42">
+        <v>1.5</v>
+      </c>
+      <c r="X42">
+        <v>2.35</v>
+      </c>
+      <c r="Y42">
+        <v>3.3</v>
+      </c>
+      <c r="Z42">
+        <v>1.28</v>
+      </c>
+      <c r="AA42">
+        <v>7.75</v>
+      </c>
+      <c r="AB42">
+        <v>1.05</v>
+      </c>
+      <c r="AC42">
+        <v>2.35</v>
+      </c>
+      <c r="AD42">
+        <v>2.8</v>
+      </c>
+      <c r="AE42">
+        <v>2.95</v>
+      </c>
+      <c r="AF42">
+        <v>1.04</v>
+      </c>
+      <c r="AG42">
+        <v>8.25</v>
+      </c>
+      <c r="AH42">
+        <v>1.4</v>
+      </c>
+      <c r="AI42">
+        <v>2.7</v>
+      </c>
+      <c r="AJ42">
+        <v>2.25</v>
+      </c>
+      <c r="AK42">
+        <v>1.58</v>
+      </c>
+      <c r="AL42">
+        <v>1.95</v>
+      </c>
+      <c r="AM42">
+        <v>1.75</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>1.35</v>
+      </c>
+      <c r="AP42">
+        <v>1.48</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>1.5</v>
+      </c>
+      <c r="AS42">
+        <v>1.67</v>
+      </c>
+      <c r="AT42">
+        <v>1.33</v>
+      </c>
+      <c r="AU42">
+        <v>1.66</v>
+      </c>
+      <c r="AV42">
+        <v>1.25</v>
+      </c>
+      <c r="AW42">
+        <v>2.91</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>9</v>
+      </c>
+      <c r="BG42">
+        <v>10</v>
+      </c>
+      <c r="BH42">
+        <v>6</v>
+      </c>
+      <c r="BI42">
+        <v>3</v>
+      </c>
+      <c r="BJ42">
+        <v>15</v>
+      </c>
+      <c r="BK42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:63">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5280720</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44997.85416666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>3.1</v>
+      </c>
+      <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
+        <v>3.6</v>
+      </c>
+      <c r="W43">
+        <v>1.49</v>
+      </c>
+      <c r="X43">
+        <v>2.51</v>
+      </c>
+      <c r="Y43">
+        <v>3.32</v>
+      </c>
+      <c r="Z43">
+        <v>1.3</v>
+      </c>
+      <c r="AA43">
+        <v>8.9</v>
+      </c>
+      <c r="AB43">
+        <v>1.05</v>
+      </c>
+      <c r="AC43">
+        <v>2.14</v>
+      </c>
+      <c r="AD43">
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <v>3.1</v>
+      </c>
+      <c r="AF43">
+        <v>1.05</v>
+      </c>
+      <c r="AG43">
+        <v>7.2</v>
+      </c>
+      <c r="AH43">
+        <v>1.4</v>
+      </c>
+      <c r="AI43">
+        <v>2.64</v>
+      </c>
+      <c r="AJ43">
+        <v>2.48</v>
+      </c>
+      <c r="AK43">
+        <v>1.48</v>
+      </c>
+      <c r="AL43">
+        <v>1.92</v>
+      </c>
+      <c r="AM43">
+        <v>1.84</v>
+      </c>
+      <c r="AN43">
+        <v>1.33</v>
+      </c>
+      <c r="AO43">
+        <v>1.29</v>
+      </c>
+      <c r="AP43">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>3</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>3</v>
+      </c>
+      <c r="AU43">
+        <v>1.98</v>
+      </c>
+      <c r="AV43">
+        <v>1.78</v>
+      </c>
+      <c r="AW43">
+        <v>3.76</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>4</v>
+      </c>
+      <c r="BH43">
+        <v>8</v>
+      </c>
+      <c r="BI43">
+        <v>4</v>
+      </c>
+      <c r="BJ43">
+        <v>13</v>
+      </c>
+      <c r="BK43">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>1.33</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5572,7 +5572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.24</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.33</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.49</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>1.33</v>
@@ -9277,6 +9277,615 @@
         <v>13</v>
       </c>
       <c r="BK43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5280724</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45002.75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['41', '65', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>11</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5280722</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45002.85416666666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['44', '81']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5280723</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45003.75</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['20', '31', '71']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK46" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -10028,13 +10028,13 @@
         <v>142</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S49">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T49">
         <v>3.25</v>
@@ -10151,22 +10151,22 @@
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH49">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI49">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ49">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK49">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -3339,7 +3339,7 @@
         <v>1.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU14" t="n">
         <v>0.91</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>2.24</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU19" t="n">
         <v>1.25</v>
@@ -4557,7 +4557,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.44</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.75</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.63</v>
@@ -5369,7 +5369,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.6</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT27" t="n">
         <v>3</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
@@ -7399,7 +7399,7 @@
         <v>2.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.64</v>
@@ -7602,7 +7602,7 @@
         <v>2.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.3</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.5</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU38" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>0.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>0.5</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.42</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.04</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -10699,6 +10699,1427 @@
       </c>
       <c r="BK50" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5280733</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45016.66666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5280728</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45016.76041666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['10', '47']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5280734</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45016.85416666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['1', '45+1', '82']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>7</v>
+      </c>
+      <c r="T53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5280730</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45017.75</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5280729</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['90+10']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>8</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7</v>
+      </c>
+      <c r="S55" t="n">
+        <v>15</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5280731</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45018.75</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>UCV</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['5', '25']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>10</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>13</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5280732</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45018.85416666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['20', '68']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>2.63</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU31" t="n">
         <v>1.02</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT42" t="n">
         <v>1.75</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -10241,7 +10241,7 @@
         <v>2.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.3</v>
@@ -12120,6 +12120,209 @@
       </c>
       <c r="BK57" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5280736</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45023.85416666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hermanos Colmenares</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>UCV</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Venezuela Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.6</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
         <v>0.83</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT19" t="n">
         <v>0.83</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
         <v>0.25</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU22" t="n">
         <v>1.57</v>
@@ -5166,7 +5166,7 @@
         <v>1.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.63</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.75</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>0.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.88</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.52</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.53</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>0.25</v>
@@ -7599,7 +7599,7 @@
         <v>0.67</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.83</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.49</v>
@@ -8008,7 +8008,7 @@
         <v>0.75</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.5</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.5</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU43" t="n">
         <v>1.98</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -9632,7 +9632,7 @@
         <v>1.8</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.86</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU47" t="n">
         <v>2.16</v>
@@ -10238,7 +10238,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.6</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>0.83</v>
@@ -11662,7 +11662,7 @@
         <v>3</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>2.34</v>
@@ -12323,6 +12323,1224 @@
       </c>
       <c r="BK58" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5280735</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45024.70833333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5280739</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45024.80208333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Deportivo Táchira</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Zamora</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5280737</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45024.89583333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Mineros de Guayana</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['19', '61']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>8</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5280740</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Estudiantes Mérida</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['46', '86']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['52', '89']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>7</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5280738</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45025.76041666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Angostura</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['61', '85']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['33', '51']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7</v>
+      </c>
+      <c r="S63" t="n">
+        <v>9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5280741</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Venezuela Primera División</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45025.875</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['60', '74']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
